--- a/taxalist.xlsx
+++ b/taxalist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrgar\Documents\GitHub\jg-exon-capture\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luketornabene/Documents/GitHub/jg-exon-capture/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{EBA1F3FE-6498-440C-B1DB-091CB7A9FA46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB16FB2-DB49-FE4D-9948-078CB9EA2433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -18,13 +18,13 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="343">
   <si>
     <t>AJOR</t>
   </si>
@@ -1035,15 +1035,40 @@
   </si>
   <si>
     <t>Grand Total</t>
+  </si>
+  <si>
+    <t>(All)</t>
+  </si>
+  <si>
+    <t>maslenikovae</t>
+  </si>
+  <si>
+    <t>spiraki</t>
+  </si>
+  <si>
+    <t>sp. cf. caudatus</t>
+  </si>
+  <si>
+    <t>sp. cf. spiraki</t>
+  </si>
+  <si>
+    <t>bromius</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1476,55 +1501,56 @@
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1584,7 +1610,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Jenny Gardner" refreshedDate="44139.288387037035" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="97">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jenny Gardner" refreshedDate="44139.288387037035" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="97" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H98" sheet="rename_table"/>
   </cacheSource>
@@ -2675,8 +2701,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B66" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -2773,12 +2799,192 @@
   <rowFields count="1">
     <field x="5"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="63">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
     <i>
       <x v="2"/>
     </i>
     <i>
       <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="61"/>
     </i>
     <i t="grand">
       <x/>
@@ -2788,7 +2994,7 @@
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="4" item="12" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Count of Species" fld="5" subtotal="count" baseField="0" baseItem="0"/>
@@ -3101,86 +3307,86 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.08984375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.6328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="9" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="6.5" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="6" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="7.5" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="18" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="4.08984375" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="4.6328125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="6" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>330</v>
       </c>
       <c r="B1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>335</v>
       </c>
@@ -3188,28 +3394,508 @@
         <v>334</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>321</v>
+        <v>259</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B42" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B54" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B55" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B57" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B61" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B62" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B63" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B64" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="B6" s="1">
-        <v>2</v>
+      <c r="B66" s="1">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3218,19 +3904,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>326</v>
       </c>
@@ -3256,7 +3942,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3276,7 +3962,7 @@
         <v>153152</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3296,7 +3982,7 @@
         <v>155714</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -3316,7 +4002,7 @@
         <v>159762</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3336,7 +4022,7 @@
         <v>150813</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -3356,7 +4042,7 @@
         <v>150790</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -3376,7 +4062,7 @@
         <v>150804</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -3396,7 +4082,7 @@
         <v>111933</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -3416,7 +4102,7 @@
         <v>152101</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -3435,8 +4121,9 @@
       <c r="G10">
         <v>154478</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="P10" s="4"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -3456,7 +4143,7 @@
         <v>158328</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -3476,7 +4163,7 @@
         <v>116034</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -3496,7 +4183,7 @@
         <v>119291</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -3516,7 +4203,7 @@
         <v>152005</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -3542,7 +4229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -3562,7 +4249,7 @@
         <v>113669</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -3582,7 +4269,7 @@
         <v>153150</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -3602,7 +4289,7 @@
         <v>150847</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -3622,7 +4309,7 @@
         <v>151026</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -3642,7 +4329,7 @@
         <v>117988</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -3662,7 +4349,7 @@
         <v>119289</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -3682,7 +4369,7 @@
         <v>150772</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -3702,7 +4389,7 @@
         <v>153151</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>76</v>
       </c>
@@ -3722,7 +4409,7 @@
         <v>117078</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>76</v>
       </c>
@@ -3742,7 +4429,7 @@
         <v>156084</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -3768,7 +4455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>82</v>
       </c>
@@ -3788,7 +4475,7 @@
         <v>150838</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>88</v>
       </c>
@@ -3808,7 +4495,7 @@
         <v>154885</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>88</v>
       </c>
@@ -3828,7 +4515,7 @@
         <v>154932</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>94</v>
       </c>
@@ -3848,7 +4535,7 @@
         <v>145603</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>98</v>
       </c>
@@ -3868,7 +4555,7 @@
         <v>117918</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>102</v>
       </c>
@@ -3888,7 +4575,7 @@
         <v>159763</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>106</v>
       </c>
@@ -3908,7 +4595,7 @@
         <v>150588</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -3934,7 +4621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>106</v>
       </c>
@@ -3954,7 +4641,7 @@
         <v>154677</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>114</v>
       </c>
@@ -3974,7 +4661,7 @@
         <v>49435</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>118</v>
       </c>
@@ -3994,7 +4681,7 @@
         <v>151261</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>122</v>
       </c>
@@ -4014,7 +4701,7 @@
         <v>151302</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>122</v>
       </c>
@@ -4034,7 +4721,7 @@
         <v>151304</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>128</v>
       </c>
@@ -4060,7 +4747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>128</v>
       </c>
@@ -4086,7 +4773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>133</v>
       </c>
@@ -4100,13 +4787,13 @@
         <v>29</v>
       </c>
       <c r="F42" t="s">
-        <v>136</v>
+        <v>338</v>
       </c>
       <c r="G42">
         <v>154503</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>133</v>
       </c>
@@ -4120,13 +4807,13 @@
         <v>29</v>
       </c>
       <c r="F43" t="s">
-        <v>136</v>
+        <v>339</v>
       </c>
       <c r="G43">
         <v>155710</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>133</v>
       </c>
@@ -4140,13 +4827,13 @@
         <v>29</v>
       </c>
       <c r="F44" t="s">
-        <v>136</v>
+        <v>341</v>
       </c>
       <c r="G44">
         <v>158306</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>141</v>
       </c>
@@ -4160,13 +4847,13 @@
         <v>29</v>
       </c>
       <c r="F45" t="s">
-        <v>144</v>
+        <v>342</v>
       </c>
       <c r="G45">
         <v>155719</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>145</v>
       </c>
@@ -4186,7 +4873,7 @@
         <v>119196</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>145</v>
       </c>
@@ -4206,7 +4893,7 @@
         <v>155711</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>150</v>
       </c>
@@ -4223,7 +4910,7 @@
         <v>153</v>
       </c>
       <c r="F48" t="s">
-        <v>154</v>
+        <v>340</v>
       </c>
       <c r="G48">
         <v>119593</v>
@@ -4232,7 +4919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>150</v>
       </c>
@@ -4246,13 +4933,13 @@
         <v>153</v>
       </c>
       <c r="F49" t="s">
-        <v>154</v>
+        <v>340</v>
       </c>
       <c r="G49">
         <v>119593</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>156</v>
       </c>
@@ -4272,7 +4959,7 @@
         <v>119821</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>156</v>
       </c>
@@ -4292,7 +4979,7 @@
         <v>151223</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>163</v>
       </c>
@@ -4318,7 +5005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>163</v>
       </c>
@@ -4344,7 +5031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>168</v>
       </c>
@@ -4364,7 +5051,7 @@
         <v>157321</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>168</v>
       </c>
@@ -4384,7 +5071,7 @@
         <v>158059</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>175</v>
       </c>
@@ -4410,7 +5097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>175</v>
       </c>
@@ -4430,7 +5117,7 @@
         <v>44504</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>181</v>
       </c>
@@ -4450,7 +5137,7 @@
         <v>151759</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>185</v>
       </c>
@@ -4476,7 +5163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>185</v>
       </c>
@@ -4502,7 +5189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>190</v>
       </c>
@@ -4522,7 +5209,7 @@
         <v>153118</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>190</v>
       </c>
@@ -4542,7 +5229,7 @@
         <v>153122</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>196</v>
       </c>
@@ -4562,7 +5249,7 @@
         <v>119829</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>196</v>
       </c>
@@ -4582,7 +5269,7 @@
         <v>159752</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>203</v>
       </c>
@@ -4602,7 +5289,7 @@
         <v>151166</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>207</v>
       </c>
@@ -4622,7 +5309,7 @@
         <v>155026</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>211</v>
       </c>
@@ -4648,7 +5335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>211</v>
       </c>
@@ -4668,7 +5355,7 @@
         <v>153834</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>216</v>
       </c>
@@ -4688,7 +5375,7 @@
         <v>112669</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>220</v>
       </c>
@@ -4708,7 +5395,7 @@
         <v>153108</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>220</v>
       </c>
@@ -4728,7 +5415,7 @@
         <v>153127</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>226</v>
       </c>
@@ -4754,7 +5441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>226</v>
       </c>
@@ -4780,7 +5467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>232</v>
       </c>
@@ -4800,7 +5487,7 @@
         <v>49438</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>236</v>
       </c>
@@ -4820,7 +5507,7 @@
         <v>115848</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>240</v>
       </c>
@@ -4840,7 +5527,7 @@
         <v>44502</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>244</v>
       </c>
@@ -4860,7 +5547,7 @@
         <v>153126</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>244</v>
       </c>
@@ -4880,7 +5567,7 @@
         <v>154464</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>250</v>
       </c>
@@ -4900,7 +5587,7 @@
         <v>155470</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>255</v>
       </c>
@@ -4920,7 +5607,7 @@
         <v>151419</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>260</v>
       </c>
@@ -4940,7 +5627,7 @@
         <v>153529</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>264</v>
       </c>
@@ -4960,7 +5647,7 @@
         <v>118898</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>268</v>
       </c>
@@ -4980,7 +5667,7 @@
         <v>153045</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>268</v>
       </c>
@@ -5000,7 +5687,7 @@
         <v>154897</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>274</v>
       </c>
@@ -5020,7 +5707,7 @@
         <v>118897</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>278</v>
       </c>
@@ -5040,7 +5727,7 @@
         <v>119304</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>278</v>
       </c>
@@ -5060,7 +5747,7 @@
         <v>155715</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>284</v>
       </c>
@@ -5080,7 +5767,7 @@
         <v>153155</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>288</v>
       </c>
@@ -5100,7 +5787,7 @@
         <v>115470</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>288</v>
       </c>
@@ -5120,7 +5807,7 @@
         <v>150606</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>294</v>
       </c>
@@ -5146,7 +5833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>298</v>
       </c>
@@ -5166,7 +5853,7 @@
         <v>119192</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>302</v>
       </c>
@@ -5186,7 +5873,7 @@
         <v>116036</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>307</v>
       </c>
@@ -5206,7 +5893,7 @@
         <v>153323</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>311</v>
       </c>
@@ -5226,7 +5913,7 @@
         <v>119776</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>311</v>
       </c>
@@ -5246,7 +5933,7 @@
         <v>119777</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>317</v>
       </c>
@@ -5266,7 +5953,7 @@
         <v>116039</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>322</v>
       </c>
